--- a/java/JeecgBoot/解析.xlsx
+++ b/java/JeecgBoot/解析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="导出" sheetId="3" r:id="rId3"/>
     <sheet name="导入" sheetId="4" r:id="rId4"/>
     <sheet name="用户表" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="token" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>登录接口</t>
   </si>
@@ -75,6 +76,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">jeecg-boot-base-core\src\main\java\org\jeecg\config\JeecgBaseConfig.java
 </t>
     </r>
@@ -138,6 +146,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>根据用户名sql查询一条用户信息</t>
     </r>
     <r>
@@ -186,6 +201,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">import cn.hutool.core.util.RandomUtil;   </t>
     </r>
     <r>
@@ -221,6 +243,26 @@
     </r>
   </si>
   <si>
+    <t>退出登录</t>
+  </si>
+  <si>
+    <t>获取header中的token</t>
+  </si>
+  <si>
+    <t>request.getHeader()
+JwtUtil.getUsername(token)
+或者JwtUtil.getUserNameByToken(request);</t>
+  </si>
+  <si>
+    <t>token里获取用户名</t>
+  </si>
+  <si>
+    <t>根据用户名sql查询一条用户数据</t>
+  </si>
+  <si>
+    <t>用于添加日志</t>
+  </si>
+  <si>
     <t>前端</t>
   </si>
   <si>
@@ -240,6 +282,18 @@
   </si>
   <si>
     <t>src\views\sys\login\LoginForm.vue</t>
+  </si>
+  <si>
+    <t>redis删除缓存</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>调用shiro的logout</t>
+  </si>
+  <si>
+    <t>SecurityUtils.getSubject().logout();</t>
   </si>
   <si>
     <t>搜索/sys/user</t>
@@ -321,6 +375,49 @@
   <si>
     <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\system\service\impl\SysUserServiceImpl.java
 getDepNamesByUserIds</t>
+  </si>
+  <si>
+    <t>验证Token</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\src\main\java\org\jeecg\common\util\TokenUtils.java</t>
+  </si>
+  <si>
+    <t>自定义401异常</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\src\main\java\org\jeecg\common\exception\JeecgBoot401Exception.java</t>
+  </si>
+  <si>
+    <t>通用api</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\src\main\java\org\jeecg\common\api\CommonAPI.java</t>
+  </si>
+  <si>
+    <t>搜索
+extends CommonAPI 接口继承接口用extends
+implements CommonAPI</t>
+  </si>
+  <si>
+    <t>jeecg-module-system\jeecg-system-api\jeecg-system-local-api\src\main\java\org\jeecg\common\system\api\ISysBaseAPI.java</t>
+  </si>
+  <si>
+    <t>搜索
+getUserByName(String username
+implements ISysBaseAPI</t>
+  </si>
+  <si>
+    <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\system\service\impl\SysBaseApiImpl.java</t>
+  </si>
+  <si>
+    <t>经过用户表</t>
+  </si>
+  <si>
+    <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\system\service\ISysUserService.java
+jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\system\service\impl\SysUserServiceImpl.java
+jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\system\mapper\SysUserMapper.java
+jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\system\mapper\xml\SysUserMapper.xml</t>
   </si>
 </sst>
 </file>
@@ -949,9 +1046,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -973,6 +1073,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1322,10 +1428,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1335,10 +1441,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -1365,10 +1471,10 @@
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1384,7 +1490,7 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1397,106 +1503,175 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" ht="86.4" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="72" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" ht="72" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" ht="28.8" spans="1:2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" ht="43.2" spans="1:2">
+      <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1538,10 +1713,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1568,18 +1743,18 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1592,31 +1767,31 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1642,49 +1817,49 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>54</v>
+      <c r="A8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1696,10 +1871,79 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" ht="43.2" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" ht="57.6" spans="1:2">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/java/JeecgBoot/解析.xlsx
+++ b/java/JeecgBoot/解析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,17 @@
     <sheet name="导入" sheetId="4" r:id="rId4"/>
     <sheet name="用户表" sheetId="5" r:id="rId5"/>
     <sheet name="token" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="oss文件上传" sheetId="8" r:id="rId7"/>
+    <sheet name="短信" sheetId="7" r:id="rId8"/>
+    <sheet name="单点登录" sheetId="9" r:id="rId9"/>
+    <sheet name="自定义注解" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
   <si>
     <t>登录接口</t>
   </si>
@@ -419,6 +422,122 @@
 jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\system\mapper\SysUserMapper.java
 jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\system\mapper\xml\SysUserMapper.xml</t>
   </si>
+  <si>
+    <t>概述场景</t>
+  </si>
+  <si>
+    <t>用户头像、添加商品</t>
+  </si>
+  <si>
+    <t>文件上传原理</t>
+  </si>
+  <si>
+    <t>阿里云oss存储和大鱼短信秘钥配置
+配置freemarker</t>
+  </si>
+  <si>
+    <t>jeecg-module-system\jeecg-system-start\src\main\resources\application-dev.yml</t>
+  </si>
+  <si>
+    <t>阿里云 oss 上传工具类(高依赖版)</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\src\main\java\org\jeecg\common\util\oss\OssBootUtil.java</t>
+  </si>
+  <si>
+    <t>系统文件实体类</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\src\main\java\org\jeecg\common\system\vo\SysFilesModel.java</t>
+  </si>
+  <si>
+    <t>云存储示例 DEMO</t>
+  </si>
+  <si>
+    <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\oss\controller\OssFileController.java</t>
+  </si>
+  <si>
+    <t>OOS云存储service接口</t>
+  </si>
+  <si>
+    <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\oss\service\IOssFileService.java</t>
+  </si>
+  <si>
+    <t>文件上传字符串过滤特殊字符</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\src\main\java\org\jeecg\common\util\filter\StrAttackFilter.java</t>
+  </si>
+  <si>
+    <t>文件类型过滤</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\src\main\java\org\jeecg\common\util\filter\FileTypeFilter.java</t>
+  </si>
+  <si>
+    <t>getFileName</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\src\main\java\org\jeecg\common\util\CommonUtils.java</t>
+  </si>
+  <si>
+    <t>文件上传</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\src\main\java\org\jeecg\common\api\dto\FileUploadDTO.java</t>
+  </si>
+  <si>
+    <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\oss\service\IOssFileService.java
+jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\oss\service\impl\OssFileServiceImpl.java</t>
+  </si>
+  <si>
+    <t>Minio文件上传配置文件</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\src\main\java\org\jeecg\config\oss\MinioConfig.java</t>
+  </si>
+  <si>
+    <t>minio文件上传工具类</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\src\main\java\org\jeecg\common\util\MinioUtil.java</t>
+  </si>
+  <si>
+    <t>minio文件上传示例</t>
+  </si>
+  <si>
+    <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\system\controller\SysUploadController.java</t>
+  </si>
+  <si>
+    <t>CAS单点登录客户端登录认证</t>
+  </si>
+  <si>
+    <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\cas\controller\CasClientController.java</t>
+  </si>
+  <si>
+    <t>不拦截配置</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\src\main\java\org\jeecg\config\shiro\ShiroConfig.java</t>
+  </si>
+  <si>
+    <t>自定义注解</t>
+  </si>
+  <si>
+    <t>http://doc.jeecg.com/2043927</t>
+  </si>
+  <si>
+    <t>缓存注解@Cacheable</t>
+  </si>
+  <si>
+    <t>字典翻译注解@Dict</t>
+  </si>
+  <si>
+    <t>数据权限注解@PermissionData</t>
+  </si>
+  <si>
+    <t>日志记录注解@AutoLog</t>
+  </si>
 </sst>
 </file>
 
@@ -436,6 +555,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -469,14 +596,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,12 +709,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -904,10 +1029,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -916,19 +1041,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -937,10 +1062,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,28 +1086,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -991,58 +1116,58 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,35 +1175,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1441,10 +1566,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -1471,10 +1596,10 @@
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1490,7 +1615,7 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1503,128 +1628,128 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" ht="86.4" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="72" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" ht="72" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" ht="28.8" spans="1:2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" ht="43.2" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
@@ -1675,6 +1800,68 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="http://doc.jeecg.com/2043927"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1842,7 +2029,7 @@
       <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1850,15 +2037,15 @@
       <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1871,13 +2058,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="120.777777777778" customWidth="1"/>
@@ -1900,38 +2087,52 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" ht="43.2" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="6" ht="43.2" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" ht="43.2" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="8" ht="43.2" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" ht="57.6" spans="1:2">
-      <c r="A8" t="s">
+    <row r="9" ht="57.6" spans="1:2">
+      <c r="A9" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>76</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1940,10 +2141,156 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A2:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" spans="1:2">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1951,4 +2298,41 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/java/JeecgBoot/解析.xlsx
+++ b/java/JeecgBoot/解析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="119">
   <si>
     <t>登录接口</t>
   </si>
@@ -507,6 +507,25 @@
   </si>
   <si>
     <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\system\controller\SysUploadController.java</t>
+  </si>
+  <si>
+    <t>文件上传大小限制</t>
+  </si>
+  <si>
+    <t>spring:
+  servlet:
+    multipart:
+      max-file-size: 10MB
+      max-request-size: 10MB</t>
+  </si>
+  <si>
+    <t>pom</t>
+  </si>
+  <si>
+    <t>&lt;!-- mini文件存储服务 --&gt;
+  &lt;dependency&gt;
+   &lt;groupId&gt;io.minio&lt;/groupId&gt;
+   &lt;artifactId&gt;minio&lt;/artifactId&gt;</t>
   </si>
   <si>
     <t>CAS单点登录客户端登录认证</t>
@@ -1171,7 +1190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1184,13 +1203,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1566,10 +1588,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -1596,7 +1618,7 @@
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1628,128 +1650,128 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="3"/>
     </row>
     <row r="10" ht="86.4" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="72" spans="1:2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" ht="72" spans="1:2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" ht="28.8" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" ht="43.2" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
@@ -1809,8 +1831,8 @@
   <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1821,33 +1843,33 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B11" s="2"/>
     </row>
@@ -2029,7 +2051,7 @@
       <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2037,12 +2059,12 @@
       <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2087,10 +2109,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
@@ -2125,8 +2147,8 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2141,10 +2163,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B18"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2199,7 +2221,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B8" t="s">
@@ -2254,28 +2276,47 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" t="s">
-        <v>100</v>
-      </c>
+    <row r="15" spans="2:2">
+      <c r="B15" s="3"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>103</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="21" ht="72" spans="1:2">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" ht="57.6" spans="1:2">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2317,18 +2358,18 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/java/JeecgBoot/解析.xlsx
+++ b/java/JeecgBoot/解析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,17 @@
     <sheet name="token" sheetId="6" r:id="rId6"/>
     <sheet name="oss文件上传" sheetId="8" r:id="rId7"/>
     <sheet name="短信" sheetId="7" r:id="rId8"/>
-    <sheet name="单点登录" sheetId="9" r:id="rId9"/>
+    <sheet name="cas单点登录" sheetId="9" r:id="rId9"/>
     <sheet name="自定义注解" sheetId="10" r:id="rId10"/>
+    <sheet name="第三方登录" sheetId="11" r:id="rId11"/>
+    <sheet name="在线预览文件" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
   <si>
     <t>登录接口</t>
   </si>
@@ -556,6 +558,9 @@
   </si>
   <si>
     <t>日志记录注解@AutoLog</t>
+  </si>
+  <si>
+    <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\system\controller\SysCommentController.java</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1205,9 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1588,10 +1590,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -1657,7 +1659,7 @@
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1665,7 +1667,7 @@
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1673,7 +1675,7 @@
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1681,7 +1683,7 @@
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1689,89 +1691,89 @@
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" ht="28.8" spans="1:2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" ht="43.2" spans="1:2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
@@ -1832,7 +1834,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1883,6 +1885,48 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://doc.jeecg.com/2043927"/>
   </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2064,7 +2108,7 @@
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2109,10 +2153,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
@@ -2147,8 +2191,8 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2165,7 +2209,7 @@
   <sheetPr/>
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2307,7 +2351,7 @@
       <c r="A21" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2315,7 +2359,7 @@
       <c r="A22" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2347,7 +2391,7 @@
   <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>

--- a/java/JeecgBoot/解析.xlsx
+++ b/java/JeecgBoot/解析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="7" activeTab="11"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -13,19 +13,22 @@
     <sheet name="导入" sheetId="4" r:id="rId4"/>
     <sheet name="用户表" sheetId="5" r:id="rId5"/>
     <sheet name="token" sheetId="6" r:id="rId6"/>
-    <sheet name="oss文件上传" sheetId="8" r:id="rId7"/>
-    <sheet name="短信" sheetId="7" r:id="rId8"/>
+    <sheet name="oss和minio文件上传" sheetId="8" r:id="rId7"/>
+    <sheet name="阿里云短信" sheetId="7" r:id="rId8"/>
     <sheet name="cas单点登录" sheetId="9" r:id="rId9"/>
     <sheet name="自定义注解" sheetId="10" r:id="rId10"/>
     <sheet name="第三方登录" sheetId="11" r:id="rId11"/>
     <sheet name="在线预览文件" sheetId="12" r:id="rId12"/>
+    <sheet name="菜单" sheetId="13" r:id="rId13"/>
+    <sheet name="使用事务" sheetId="14" r:id="rId14"/>
+    <sheet name="文档预览" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="132">
   <si>
     <t>登录接口</t>
   </si>
@@ -61,12 +64,44 @@
     <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\system\entity\SysUser.java</t>
   </si>
   <si>
-    <t>公共接口---保存日志，日志表</t>
-  </si>
-  <si>
-    <t>jeecg-boot-base-core\src\main\java\org\jeecg\modules\base\service\BaseCommonService.java
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>公共接口---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保存日志</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，日志表</t>
+    </r>
+  </si>
+  <si>
+    <t>// service
+jeecg-boot-base-core\src\main\java\org\jeecg\modules\base\service\BaseCommonService.java
 jeecg-boot-base-core\src\main\java\org\jeecg\modules\base\service\impl\BaseCommonServiceImpl.java
+// 实体类
 jeecg-boot-base-core\src\main\java\org\jeecg\common\api\dto\LogDTO.java
+// mapper
 jeecg-boot-base-core\src\main\java\org\jeecg\modules\base\mapper\BaseCommonMapper.java
 jeecg-boot-base-core\src\main\java\org\jeecg\modules\base\mapper\xml\BaseCommonMapper.xml</t>
   </si>
@@ -530,6 +565,38 @@
    &lt;artifactId&gt;minio&lt;/artifactId&gt;</t>
   </si>
   <si>
+    <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\system\controller\LoginController.java
+@PostMapping(value = "/sms")</t>
+  </si>
+  <si>
+    <t>短信API</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\src\main\java\org\jeecg\common\util\DySmsHelper.java
+jeecg-boot-base-core\src\main\java\org\jeecg\common\util\DySmsEnum.java</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\pom.xml
+&lt;!-- 阿里云短信 --&gt;
+  &lt;dependency&gt;
+   &lt;groupId&gt;com.aliyun&lt;/groupId&gt;
+   &lt;artifactId&gt;aliyun-java-sdk-dysmsapi&lt;/artifactId&gt;
+   &lt;version&gt;${aliyun-java-sdk-dysmsapi.version}&lt;/version&gt;
+  &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>jeecg-module-system\jeecg-system-start\src\main\resources\application-dev.yml
+  #阿里云oss存储和大鱼短信秘钥配置
+  oss:
+    accessKey: ??
+    secretKey: ??
+    endpoint: oss-cn-beijing.aliyuncs.com
+    bucketName: jeecgdev</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\src\main\java\org\jeecg\config\StaticConfig.java</t>
+  </si>
+  <si>
     <t>CAS单点登录客户端登录认证</t>
   </si>
   <si>
@@ -561,6 +628,24 @@
   </si>
   <si>
     <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\system\controller\SysCommentController.java</t>
+  </si>
+  <si>
+    <t>动态路由</t>
+  </si>
+  <si>
+    <t>通过用户账号查询角色集合</t>
+  </si>
+  <si>
+    <t>jeecg-module-demo\src\main\java\org\jeecg\modules\demo\test\service\IJeecgDemoService.java</t>
+  </si>
+  <si>
+    <t>@Transactional(rollbackFor = Exception.class)</t>
+  </si>
+  <si>
+    <t>jeecg-module-demo\src\main\java\org\jeecg\modules\demo\test\service\impl\JeecgDemoServiceImpl.java</t>
+  </si>
+  <si>
+    <t>jeecg-module-system\jeecg-system-start\src\test\java\org\jeecg\SampleTest.java</t>
   </si>
 </sst>
 </file>
@@ -742,13 +827,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,35 +1284,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1579,8 +1664,8 @@
   <sheetPr/>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1590,10 +1675,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -1620,10 +1705,10 @@
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1635,11 +1720,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="72" spans="1:2">
-      <c r="A7" t="s">
+    <row r="7" ht="115.2" spans="1:2">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1652,19 +1737,19 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" ht="86.4" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="72" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1672,108 +1757,108 @@
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" ht="72" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" ht="28.8" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" ht="43.2" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
@@ -1845,35 +1930,35 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1911,7 +1996,7 @@
   <sheetPr/>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1923,7 +2008,107 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>119</v>
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2095,7 +2280,7 @@
       <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2103,7 +2288,7 @@
       <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2111,7 +2296,7 @@
       <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2153,21 +2338,21 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B6" t="s">
@@ -2175,7 +2360,7 @@
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B8" t="s">
@@ -2186,7 +2371,7 @@
       <c r="A9" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2209,8 +2394,8 @@
   <sheetPr/>
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2233,7 +2418,7 @@
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B4" t="s">
@@ -2265,7 +2450,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B8" t="s">
@@ -2316,12 +2501,12 @@
       <c r="A14" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="3"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -2351,7 +2536,7 @@
       <c r="A21" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2359,7 +2544,7 @@
       <c r="A22" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2372,14 +2557,47 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="28.8" spans="2:2">
+      <c r="B2" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:2">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" ht="100.8" spans="2:2">
+      <c r="B4" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" ht="100.8" spans="2:2">
+      <c r="B5" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2402,18 +2620,18 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/java/JeecgBoot/解析.xlsx
+++ b/java/JeecgBoot/解析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="7" activeTab="14"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="138">
   <si>
     <t>登录接口</t>
   </si>
@@ -625,6 +625,25 @@
   </si>
   <si>
     <t>日志记录注解@AutoLog</t>
+  </si>
+  <si>
+    <t>注在控制层方法上
+@AutoLog(value = "添加测试DEMO")</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\src\main\java\org\jeecg\common\aspect\annotation\AutoLog.java</t>
+  </si>
+  <si>
+    <t>切面类</t>
+  </si>
+  <si>
+    <t>jeecg-boot-base-core\src\main\java\org\jeecg\common\aspect\AutoLogAspect.java</t>
+  </si>
+  <si>
+    <t>@Aspect 注解使用详解</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/fz13768884254/article/details/83538709</t>
   </si>
   <si>
     <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\system\controller\SysCommentController.java</t>
@@ -1280,7 +1299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,6 +1311,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1664,7 +1686,7 @@
   <sheetPr/>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1705,10 +1727,10 @@
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1721,10 +1743,10 @@
       </c>
     </row>
     <row r="7" ht="115.2" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1737,122 +1759,122 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" ht="86.4" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="72" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" ht="72" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" ht="28.8" spans="1:2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" ht="43.2" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
@@ -1916,10 +1938,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1960,6 +1982,30 @@
       </c>
       <c r="B11" s="3"/>
     </row>
+    <row r="12" ht="28.8" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
@@ -1969,6 +2015,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://doc.jeecg.com/2043927"/>
+    <hyperlink ref="B14" r:id="rId2" display="https://blog.csdn.net/fz13768884254/article/details/83538709"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2008,7 +2055,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2034,13 +2081,13 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2069,20 +2116,20 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2096,7 +2143,7 @@
   <sheetPr/>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2108,7 +2155,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2280,7 +2327,7 @@
       <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2288,15 +2335,15 @@
       <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2347,12 +2394,12 @@
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B6" t="s">
@@ -2360,7 +2407,7 @@
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B8" t="s">
@@ -2371,13 +2418,13 @@
       <c r="A9" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2418,7 +2465,7 @@
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B4" t="s">
@@ -2450,7 +2497,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B8" t="s">
@@ -2501,12 +2548,12 @@
       <c r="A14" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -2536,7 +2583,7 @@
       <c r="A21" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2544,7 +2591,7 @@
       <c r="A22" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2570,7 +2617,7 @@
   </cols>
   <sheetData>
     <row r="2" ht="28.8" spans="2:2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2578,17 +2625,17 @@
       <c r="A3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" ht="100.8" spans="2:2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" ht="100.8" spans="2:2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>113</v>
       </c>
     </row>

--- a/java/JeecgBoot/解析.xlsx
+++ b/java/JeecgBoot/解析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="7" activeTab="9"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,15 @@
     <sheet name="菜单" sheetId="13" r:id="rId13"/>
     <sheet name="使用事务" sheetId="14" r:id="rId14"/>
     <sheet name="文档预览" sheetId="15" r:id="rId15"/>
+    <sheet name="定时任务" sheetId="16" r:id="rId16"/>
+    <sheet name="启动" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="147">
   <si>
     <t>登录接口</t>
   </si>
@@ -665,6 +667,33 @@
   </si>
   <si>
     <t>jeecg-module-system\jeecg-system-start\src\test\java\org\jeecg\SampleTest.java</t>
+  </si>
+  <si>
+    <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\quartz\job\SampleJob.java</t>
+  </si>
+  <si>
+    <t>启动</t>
+  </si>
+  <si>
+    <t>jeecg-module-system\jeecg-system-start\src\main\java\org\jeecg\JeecgSystemApplication.java</t>
+  </si>
+  <si>
+    <t>Druid监控</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/jeecg-boot/druid/</t>
+  </si>
+  <si>
+    <t>登录名：admin，密码123456</t>
+  </si>
+  <si>
+    <t>在线接口文档swagger</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/jeecg-boot/doc.html</t>
+  </si>
+  <si>
+    <t>登录名：jeecg，密码jeecg1314</t>
   </si>
 </sst>
 </file>
@@ -1303,17 +1332,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1697,10 +1726,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -1877,10 +1906,10 @@
       <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
@@ -1940,8 +1969,8 @@
   <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1954,36 +1983,36 @@
       <c r="A1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" ht="28.8" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B12" t="s">
@@ -2002,7 +2031,7 @@
       <c r="A14" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2080,10 +2109,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
@@ -2159,6 +2188,99 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="http://localhost:8080/jeecg-boot/druid/"/>
+    <hyperlink ref="B7" r:id="rId2" display="http://localhost:8080/jeecg-boot/doc.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2385,10 +2507,10 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">

--- a/java/JeecgBoot/解析.xlsx
+++ b/java/JeecgBoot/解析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="9" activeTab="16"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="153">
   <si>
     <t>登录接口</t>
   </si>
@@ -336,6 +336,47 @@
   </si>
   <si>
     <t>SecurityUtils.getSubject().logout();</t>
+  </si>
+  <si>
+    <t>高级实战技巧</t>
+  </si>
+  <si>
+    <t>http://doc.jeecg.com/2044162</t>
+  </si>
+  <si>
+    <t>@Resource
+private WebSocket webSocket;</t>
+  </si>
+  <si>
+    <t>都在message文件夹里</t>
+  </si>
+  <si>
+    <r>
+      <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\handle\impl\SystemSendMsgHandle.java</t>
+    </r>
+  </si>
+  <si>
+    <t>jeecg-module-system\jeecg-system-biz\src\main\java\org\jeecg\modules\system\controller\SysAnnouncementController.java</t>
   </si>
   <si>
     <t>搜索/sys/user</t>
@@ -1328,7 +1369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1354,6 +1395,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1772,7 +1816,7 @@
       </c>
     </row>
     <row r="7" ht="115.2" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1795,7 +1839,7 @@
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1811,7 +1855,7 @@
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1819,7 +1863,7 @@
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1827,83 +1871,83 @@
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" ht="28.8" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" ht="43.2" spans="1:2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
@@ -1981,58 +2025,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" ht="28.8" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2084,7 +2128,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2110,13 +2154,13 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2145,20 +2189,20 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2228,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +2254,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2268,7 @@
   <sheetPr/>
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2236,10 +2280,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -2247,29 +2291,29 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2289,14 +2333,48 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" ht="28.8" spans="2:2">
+      <c r="B2" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="http://doc.jeecg.com/2044162"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2320,10 +2398,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2350,18 +2428,18 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2374,31 +2452,31 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2424,49 +2502,49 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2492,56 +2570,56 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" ht="57.6" spans="1:2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2575,23 +2653,23 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2604,74 +2682,74 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:2">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -2679,42 +2757,42 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" ht="72" spans="1:2">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" ht="57.6" spans="1:2">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2740,30 +2818,30 @@
   <sheetData>
     <row r="2" ht="28.8" spans="2:2">
       <c r="B2" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:2">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" ht="100.8" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" ht="100.8" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2789,18 +2867,18 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
